--- a/others/List-of-Graduates-2024.xlsx
+++ b/others/List-of-Graduates-2024.xlsx
@@ -1,27 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3F7EF-9B44-46A6-881D-7077AC1B7C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27930" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
+    <t>CAVITE STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>IMUS CAMPUS</t>
+  </si>
+  <si>
+    <t>Cavite Civic Center, Palico IV, City of Imus, Cavite</t>
+  </si>
+  <si>
+    <t>(046) 471-6770/ 471-6607</t>
+  </si>
+  <si>
+    <t>www.cvsu.edu.ph</t>
+  </si>
+  <si>
+    <t>LIST OF GRADUATES</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Contact No.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Cruz</t>
   </si>
   <si>
@@ -101,75 +159,22 @@
   </si>
   <si>
     <t>raphael@email.com</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Middlename</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Contact No.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>LIST OF GRADUATES</t>
-  </si>
-  <si>
-    <t>CAVITE STATE UNIVERSITY</t>
-  </si>
-  <si>
-    <t>IMUS CAMPUS</t>
-  </si>
-  <si>
-    <t>Cavite Civic Center, Palico IV, City of Imus, Cavite</t>
-  </si>
-  <si>
-    <t>(046) 471-6770/ 471-6607</t>
-  </si>
-  <si>
-    <t>www.cvsu.edu.ph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -179,37 +184,181 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +367,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -232,27 +567,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -261,25 +581,14 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -287,22 +596,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,92 +611,409 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -654,340 +1271,340 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="10.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="13.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="10.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25">
-      <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+    <row r="1" ht="26.25" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
+    <row r="6" ht="15.75" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
+    <row r="7" ht="15.75" spans="1:11">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="11">
         <v>202310224</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12">
         <v>9876543211</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>7</v>
+      <c r="J9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5">
+      <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>202310225</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="12">
         <v>9876543211</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
+      <c r="J10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5">
+      <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="11">
         <v>202310226</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="12">
         <v>9876543211</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>16</v>
+      <c r="J11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5">
+      <c r="A12" s="11">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="11">
         <v>202310227</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="C12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12">
         <v>9876543211</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
+      <c r="J12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5">
+      <c r="A13" s="11">
         <v>5</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="11">
         <v>202310228</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="12">
+        <v>9876543211</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="6">
-        <v>9876543211</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>26</v>
+      <c r="K13" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -997,18 +1614,19 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{1DB0D228-D3A7-4F0A-9174-6F45FD4CC5D0}"/>
+    <hyperlink ref="K9" r:id="rId1" display="mike@email.com"/>
+    <hyperlink ref="K10" r:id="rId2" display="mel@email.com"/>
+    <hyperlink ref="K11" r:id="rId3" display="alvin@email.com"/>
+    <hyperlink ref="K12" r:id="rId4" display="ceil@email.com"/>
+    <hyperlink ref="K13" r:id="rId5" display="raphael@email.com"/>
+    <hyperlink ref="A5" r:id="rId6" display="www.cvsu.edu.ph"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>